--- a/result.xlsx
+++ b/result.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2012 Volvo XC70</t>
+          <t>2007 Suzuki Forenza</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$11,569</t>
+          <t>$3,147</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'VIN': 'YV4952BLXC1143836', 'Trim': '3.2L Premier', 'Full Style Name': 'FWD 4dr Wagon 3.2L Premier', 'Mileage': '125,000 mi.', 'Tire Mileage': '10 to 20K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '240 HP @ 6200 RPM 6 cylinder, 3.2L', 'Fuel Economy': '19 MPG city 25 MPG highway 21 MPG combined', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Brown'}</t>
+          <t>{'VIN': 'KL5JD86Z97K539590', 'Full Style Name': '4dr Wagon Auto', 'Mileage': '122,500 mi.', 'Tire Mileage': '5 to 10K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '126 HP @ 5600 RPM 4 cylinder, 2.0L', 'Fuel Economy': '21 MPG city 30 MPG highway', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Blue'}</t>
         </is>
       </c>
     </row>
